--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Tnfrsf1a</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.013823333333334</v>
+        <v>0.1597263333333333</v>
       </c>
       <c r="H2">
-        <v>3.04147</v>
+        <v>0.479179</v>
       </c>
       <c r="I2">
-        <v>0.1808135948909178</v>
+        <v>0.02694221423316326</v>
       </c>
       <c r="J2">
-        <v>0.1808135948909178</v>
+        <v>0.02710802103339717</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.67810466666666</v>
+        <v>36.95112266666666</v>
       </c>
       <c r="N2">
-        <v>101.034314</v>
+        <v>110.853368</v>
       </c>
       <c r="O2">
-        <v>0.1611708087274132</v>
+        <v>0.1740115908809209</v>
       </c>
       <c r="P2">
-        <v>0.1681783058563055</v>
+        <v>0.1775751473829744</v>
       </c>
       <c r="Q2">
-        <v>34.14364833350889</v>
+        <v>5.902067336096888</v>
       </c>
       <c r="R2">
-        <v>307.29283500158</v>
+        <v>53.11860602487199</v>
       </c>
       <c r="S2">
-        <v>0.02914187331748008</v>
+        <v>0.00468825756056733</v>
       </c>
       <c r="T2">
-        <v>0.03040892406454288</v>
+        <v>0.004813710830266273</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.013823333333334</v>
+        <v>0.1597263333333333</v>
       </c>
       <c r="H3">
-        <v>3.04147</v>
+        <v>0.479179</v>
       </c>
       <c r="I3">
-        <v>0.1808135948909178</v>
+        <v>0.02694221423316326</v>
       </c>
       <c r="J3">
-        <v>0.1808135948909178</v>
+        <v>0.02710802103339717</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>155.582533</v>
       </c>
       <c r="O3">
-        <v>0.2481865979460152</v>
+        <v>0.2442250025331967</v>
       </c>
       <c r="P3">
-        <v>0.2589774284088547</v>
+        <v>0.2492264486514428</v>
       </c>
       <c r="Q3">
-        <v>52.57773407150113</v>
+        <v>8.283542508934111</v>
       </c>
       <c r="R3">
-        <v>473.1996066435101</v>
+        <v>74.55188258040701</v>
       </c>
       <c r="S3">
-        <v>0.04487551097836587</v>
+        <v>0.006579962339344225</v>
       </c>
       <c r="T3">
-        <v>0.0468266398262103</v>
+        <v>0.006756035812122189</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.013823333333334</v>
+        <v>0.1597263333333333</v>
       </c>
       <c r="H4">
-        <v>3.04147</v>
+        <v>0.479179</v>
       </c>
       <c r="I4">
-        <v>0.1808135948909178</v>
+        <v>0.02694221423316326</v>
       </c>
       <c r="J4">
-        <v>0.1808135948909178</v>
+        <v>0.02710802103339717</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.437046</v>
+        <v>64.73785366666665</v>
       </c>
       <c r="N4">
-        <v>127.311138</v>
+        <v>194.213561</v>
       </c>
       <c r="O4">
-        <v>0.2030878249093402</v>
+        <v>0.3048658902295037</v>
       </c>
       <c r="P4">
-        <v>0.2119178193804366</v>
+        <v>0.3111091917238571</v>
       </c>
       <c r="Q4">
-        <v>43.02366743254001</v>
+        <v>10.34033999404655</v>
       </c>
       <c r="R4">
-        <v>387.2130068928601</v>
+        <v>93.06305994641899</v>
       </c>
       <c r="S4">
-        <v>0.03672103970043509</v>
+        <v>0.008213762126947322</v>
       </c>
       <c r="T4">
-        <v>0.03831762274362095</v>
+        <v>0.008433554512933513</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.013823333333334</v>
+        <v>0.1597263333333333</v>
       </c>
       <c r="H5">
-        <v>3.04147</v>
+        <v>0.479179</v>
       </c>
       <c r="I5">
-        <v>0.1808135948909178</v>
+        <v>0.02694221423316326</v>
       </c>
       <c r="J5">
-        <v>0.1808135948909178</v>
+        <v>0.02710802103339717</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.120138</v>
+        <v>12.7841595</v>
       </c>
       <c r="N5">
-        <v>52.24027599999999</v>
+        <v>25.568319</v>
       </c>
       <c r="O5">
-        <v>0.1250012079717284</v>
+        <v>0.06020363583370166</v>
       </c>
       <c r="P5">
-        <v>0.08695739860366464</v>
+        <v>0.04095769119761797</v>
       </c>
       <c r="Q5">
-        <v>26.48120537428667</v>
+        <v>2.0419669216835</v>
       </c>
       <c r="R5">
-        <v>158.88723224572</v>
+        <v>12.251801530101</v>
       </c>
       <c r="S5">
-        <v>0.02260191777907546</v>
+        <v>0.001622019254246935</v>
       </c>
       <c r="T5">
-        <v>0.01572307984389108</v>
+        <v>0.001110281954464414</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.013823333333334</v>
+        <v>0.1597263333333333</v>
       </c>
       <c r="H6">
-        <v>3.04147</v>
+        <v>0.479179</v>
       </c>
       <c r="I6">
-        <v>0.1808135948909178</v>
+        <v>0.02694221423316326</v>
       </c>
       <c r="J6">
-        <v>0.1808135948909178</v>
+        <v>0.02710802103339717</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.86295166666665</v>
+        <v>46.01464833333333</v>
       </c>
       <c r="N6">
-        <v>164.588855</v>
+        <v>138.043945</v>
       </c>
       <c r="O6">
-        <v>0.262553560445503</v>
+        <v>0.216693880522677</v>
       </c>
       <c r="P6">
-        <v>0.2739690477507385</v>
+        <v>0.2211315210441077</v>
       </c>
       <c r="Q6">
-        <v>55.62134053520555</v>
+        <v>7.349751057906111</v>
       </c>
       <c r="R6">
-        <v>500.5920648168499</v>
+        <v>66.14775952115501</v>
       </c>
       <c r="S6">
-        <v>0.04747325311556128</v>
+        <v>0.005838212952057449</v>
       </c>
       <c r="T6">
-        <v>0.04953732841265254</v>
+        <v>0.005994437923610782</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.010756</v>
       </c>
       <c r="I7">
-        <v>0.0006394378463856988</v>
+        <v>0.0006047645165833729</v>
       </c>
       <c r="J7">
-        <v>0.0006394378463856988</v>
+        <v>0.0006084863364947545</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.67810466666666</v>
+        <v>36.95112266666666</v>
       </c>
       <c r="N7">
-        <v>101.034314</v>
+        <v>110.853368</v>
       </c>
       <c r="O7">
-        <v>0.1611708087274132</v>
+        <v>0.1740115908809209</v>
       </c>
       <c r="P7">
-        <v>0.1681783058563055</v>
+        <v>0.1775751473829744</v>
       </c>
       <c r="Q7">
-        <v>0.1207472312648889</v>
+        <v>0.1324820918008889</v>
       </c>
       <c r="R7">
-        <v>1.086725081384</v>
+        <v>1.192338826208</v>
       </c>
       <c r="S7">
-        <v>0.0001030587148328985</v>
+        <v>0.0001052360356390038</v>
       </c>
       <c r="T7">
-        <v>0.0001075395737055513</v>
+        <v>0.0001080520508835822</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.010756</v>
       </c>
       <c r="I8">
-        <v>0.0006394378463856988</v>
+        <v>0.0006047645165833729</v>
       </c>
       <c r="J8">
-        <v>0.0006394378463856988</v>
+        <v>0.0006084863364947545</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>155.582533</v>
       </c>
       <c r="O8">
-        <v>0.2481865979460152</v>
+        <v>0.2442250025331967</v>
       </c>
       <c r="P8">
-        <v>0.2589774284088547</v>
+        <v>0.2492264486514428</v>
       </c>
       <c r="Q8">
         <v>0.1859384138831111</v>
@@ -948,10 +948,10 @@
         <v>1.673445724948</v>
       </c>
       <c r="S8">
-        <v>0.0001586999036923932</v>
+        <v>0.0001476986155945617</v>
       </c>
       <c r="T8">
-        <v>0.0001655999690842645</v>
+        <v>0.0001516508886975144</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>0.010756</v>
       </c>
       <c r="I9">
-        <v>0.0006394378463856988</v>
+        <v>0.0006047645165833729</v>
       </c>
       <c r="J9">
-        <v>0.0006394378463856988</v>
+        <v>0.0006084863364947545</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.437046</v>
+        <v>64.73785366666665</v>
       </c>
       <c r="N9">
-        <v>127.311138</v>
+        <v>194.213561</v>
       </c>
       <c r="O9">
-        <v>0.2030878249093402</v>
+        <v>0.3048658902295037</v>
       </c>
       <c r="P9">
-        <v>0.2119178193804366</v>
+        <v>0.3111091917238571</v>
       </c>
       <c r="Q9">
-        <v>0.152150955592</v>
+        <v>0.2321067846795555</v>
       </c>
       <c r="R9">
-        <v>1.369358600328</v>
+        <v>2.088961062116</v>
       </c>
       <c r="S9">
-        <v>0.0001298620413871844</v>
+        <v>0.0001843720727274054</v>
       </c>
       <c r="T9">
-        <v>0.0001355082740353799</v>
+        <v>0.000189305692321894</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,10 +1042,10 @@
         <v>0.010756</v>
       </c>
       <c r="I10">
-        <v>0.0006394378463856988</v>
+        <v>0.0006047645165833729</v>
       </c>
       <c r="J10">
-        <v>0.0006394378463856988</v>
+        <v>0.0006084863364947545</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.120138</v>
+        <v>12.7841595</v>
       </c>
       <c r="N10">
-        <v>52.24027599999999</v>
+        <v>25.568319</v>
       </c>
       <c r="O10">
-        <v>0.1250012079717284</v>
+        <v>0.06020363583370166</v>
       </c>
       <c r="P10">
-        <v>0.08695739860366464</v>
+        <v>0.04095769119761797</v>
       </c>
       <c r="Q10">
-        <v>0.09364940144266665</v>
+        <v>0.04583547319400001</v>
       </c>
       <c r="R10">
-        <v>0.561896408656</v>
+        <v>0.275012839164</v>
       </c>
       <c r="S10">
-        <v>7.993050322105283E-05</v>
+        <v>3.640902272153001E-05</v>
       </c>
       <c r="T10">
-        <v>5.560385169043008E-05</v>
+        <v>2.492219546812201E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>0.010756</v>
       </c>
       <c r="I11">
-        <v>0.0006394378463856988</v>
+        <v>0.0006047645165833729</v>
       </c>
       <c r="J11">
-        <v>0.0006394378463856988</v>
+        <v>0.0006084863364947545</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.86295166666665</v>
+        <v>46.01464833333333</v>
       </c>
       <c r="N11">
-        <v>164.588855</v>
+        <v>138.043945</v>
       </c>
       <c r="O11">
-        <v>0.262553560445503</v>
+        <v>0.216693880522677</v>
       </c>
       <c r="P11">
-        <v>0.2739690477507385</v>
+        <v>0.2211315210441077</v>
       </c>
       <c r="Q11">
-        <v>0.1967019693755555</v>
+        <v>0.1649778524911111</v>
       </c>
       <c r="R11">
-        <v>1.77031772438</v>
+        <v>1.48480067242</v>
       </c>
       <c r="S11">
-        <v>0.0001678866832521699</v>
+        <v>0.000131048769900872</v>
       </c>
       <c r="T11">
-        <v>0.0001751861778700729</v>
+        <v>0.0001345555091236418</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.664473</v>
+        <v>2.322236666666667</v>
       </c>
       <c r="H12">
-        <v>4.993418999999999</v>
+        <v>6.96671</v>
       </c>
       <c r="I12">
-        <v>0.2968558099164587</v>
+        <v>0.3917087212092367</v>
       </c>
       <c r="J12">
-        <v>0.2968558099164587</v>
+        <v>0.3941193608517451</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.67810466666666</v>
+        <v>36.95112266666666</v>
       </c>
       <c r="N12">
-        <v>101.034314</v>
+        <v>110.853368</v>
       </c>
       <c r="O12">
-        <v>0.1611708087274132</v>
+        <v>0.1740115908809209</v>
       </c>
       <c r="P12">
-        <v>0.1681783058563055</v>
+        <v>0.1775751473829744</v>
       </c>
       <c r="Q12">
-        <v>56.05629590884065</v>
+        <v>85.8092519310311</v>
       </c>
       <c r="R12">
-        <v>504.5066631795659</v>
+        <v>772.2832673792799</v>
       </c>
       <c r="S12">
-        <v>0.04784449095966688</v>
+        <v>0.0681618577395504</v>
       </c>
       <c r="T12">
-        <v>0.04992470719535147</v>
+        <v>0.06998580358973232</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.664473</v>
+        <v>2.322236666666667</v>
       </c>
       <c r="H13">
-        <v>4.993418999999999</v>
+        <v>6.96671</v>
       </c>
       <c r="I13">
-        <v>0.2968558099164587</v>
+        <v>0.3917087212092367</v>
       </c>
       <c r="J13">
-        <v>0.2968558099164587</v>
+        <v>0.3941193608517451</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>155.582533</v>
       </c>
       <c r="O13">
-        <v>0.2481865979460152</v>
+        <v>0.2442250025331967</v>
       </c>
       <c r="P13">
-        <v>0.2589774284088547</v>
+        <v>0.2492264486514428</v>
       </c>
       <c r="Q13">
-        <v>86.32097515003633</v>
+        <v>120.4331542751589</v>
       </c>
       <c r="R13">
-        <v>776.888776350327</v>
+        <v>1083.89838847643</v>
       </c>
       <c r="S13">
-        <v>0.07367563354367483</v>
+        <v>0.09566506342960106</v>
       </c>
       <c r="T13">
-        <v>0.07687895426039225</v>
+        <v>0.0982249686498569</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.664473</v>
+        <v>2.322236666666667</v>
       </c>
       <c r="H14">
-        <v>4.993418999999999</v>
+        <v>6.96671</v>
       </c>
       <c r="I14">
-        <v>0.2968558099164587</v>
+        <v>0.3917087212092367</v>
       </c>
       <c r="J14">
-        <v>0.2968558099164587</v>
+        <v>0.3941193608517451</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>42.437046</v>
+        <v>64.73785366666665</v>
       </c>
       <c r="N14">
-        <v>127.311138</v>
+        <v>194.213561</v>
       </c>
       <c r="O14">
-        <v>0.2030878249093402</v>
+        <v>0.3048658902295037</v>
       </c>
       <c r="P14">
-        <v>0.2119178193804366</v>
+        <v>0.3111091917238571</v>
       </c>
       <c r="Q14">
-        <v>70.63531726675799</v>
+        <v>150.3366175060344</v>
       </c>
       <c r="R14">
-        <v>635.7178554008219</v>
+        <v>1353.02955755431</v>
       </c>
       <c r="S14">
-        <v>0.06028780074763414</v>
+        <v>0.1194186280021144</v>
       </c>
       <c r="T14">
-        <v>0.06290903590790931</v>
+        <v>0.1226141557973096</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.664473</v>
+        <v>2.322236666666667</v>
       </c>
       <c r="H15">
-        <v>4.993418999999999</v>
+        <v>6.96671</v>
       </c>
       <c r="I15">
-        <v>0.2968558099164587</v>
+        <v>0.3917087212092367</v>
       </c>
       <c r="J15">
-        <v>0.2968558099164587</v>
+        <v>0.3941193608517451</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.120138</v>
+        <v>12.7841595</v>
       </c>
       <c r="N15">
-        <v>52.24027599999999</v>
+        <v>25.568319</v>
       </c>
       <c r="O15">
-        <v>0.1250012079717284</v>
+        <v>0.06020363583370166</v>
       </c>
       <c r="P15">
-        <v>0.08695739860366464</v>
+        <v>0.04095769119761797</v>
       </c>
       <c r="Q15">
-        <v>43.47626445727399</v>
+        <v>29.687843943415</v>
       </c>
       <c r="R15">
-        <v>260.8575867436439</v>
+        <v>178.12706366049</v>
       </c>
       <c r="S15">
-        <v>0.03710733483298311</v>
+        <v>0.02358228920456585</v>
       </c>
       <c r="T15">
-        <v>0.0258138089907192</v>
+        <v>0.01614221907676834</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.664473</v>
+        <v>2.322236666666667</v>
       </c>
       <c r="H16">
-        <v>4.993418999999999</v>
+        <v>6.96671</v>
       </c>
       <c r="I16">
-        <v>0.2968558099164587</v>
+        <v>0.3917087212092367</v>
       </c>
       <c r="J16">
-        <v>0.2968558099164587</v>
+        <v>0.3941193608517451</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.86295166666665</v>
+        <v>46.01464833333333</v>
       </c>
       <c r="N16">
-        <v>164.588855</v>
+        <v>138.043945</v>
       </c>
       <c r="O16">
-        <v>0.262553560445503</v>
+        <v>0.216693880522677</v>
       </c>
       <c r="P16">
-        <v>0.2739690477507385</v>
+        <v>0.2211315210441077</v>
       </c>
       <c r="Q16">
-        <v>91.31790174947163</v>
+        <v>106.8569035634389</v>
       </c>
       <c r="R16">
-        <v>821.8611157452448</v>
+        <v>961.71213207095</v>
       </c>
       <c r="S16">
-        <v>0.07794054983249969</v>
+        <v>0.08488088283340495</v>
       </c>
       <c r="T16">
-        <v>0.08132930356208642</v>
+        <v>0.08715221373807798</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>2.925126666666667</v>
+        <v>0.108785</v>
       </c>
       <c r="H17">
-        <v>8.775380000000002</v>
+        <v>0.21757</v>
       </c>
       <c r="I17">
-        <v>0.5216911573462379</v>
+        <v>0.01834956524819326</v>
       </c>
       <c r="J17">
-        <v>0.5216911573462378</v>
+        <v>0.01230832765258123</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.67810466666666</v>
+        <v>36.95112266666666</v>
       </c>
       <c r="N17">
-        <v>101.034314</v>
+        <v>110.853368</v>
       </c>
       <c r="O17">
-        <v>0.1611708087274132</v>
+        <v>0.1740115908809209</v>
       </c>
       <c r="P17">
-        <v>0.1681783058563055</v>
+        <v>0.1775751473829744</v>
       </c>
       <c r="Q17">
-        <v>98.51272204325778</v>
+        <v>4.019727879293333</v>
       </c>
       <c r="R17">
-        <v>886.6144983893201</v>
+        <v>24.11836727576</v>
       </c>
       <c r="S17">
-        <v>0.08408138573543332</v>
+        <v>0.00319303704081137</v>
       </c>
       <c r="T17">
-        <v>0.08773713502270558</v>
+        <v>0.002185653096945052</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>2.925126666666667</v>
+        <v>0.108785</v>
       </c>
       <c r="H18">
-        <v>8.775380000000002</v>
+        <v>0.21757</v>
       </c>
       <c r="I18">
-        <v>0.5216911573462379</v>
+        <v>0.01834956524819326</v>
       </c>
       <c r="J18">
-        <v>0.5216911573462378</v>
+        <v>0.01230832765258123</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>155.582533</v>
       </c>
       <c r="O18">
-        <v>0.2481865979460152</v>
+        <v>0.2442250025331967</v>
       </c>
       <c r="P18">
-        <v>0.2589774284088547</v>
+        <v>0.2492264486514428</v>
       </c>
       <c r="Q18">
-        <v>151.6995387152823</v>
+        <v>5.641681950801668</v>
       </c>
       <c r="R18">
-        <v>1365.29584843754</v>
+        <v>33.85009170481</v>
       </c>
       <c r="S18">
-        <v>0.1294767535202821</v>
+        <v>0.004481422619223056</v>
       </c>
       <c r="T18">
-        <v>0.1351062343531678</v>
+        <v>0.003067560789691169</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>2.925126666666667</v>
+        <v>0.108785</v>
       </c>
       <c r="H19">
-        <v>8.775380000000002</v>
+        <v>0.21757</v>
       </c>
       <c r="I19">
-        <v>0.5216911573462379</v>
+        <v>0.01834956524819326</v>
       </c>
       <c r="J19">
-        <v>0.5216911573462378</v>
+        <v>0.01230832765258123</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>42.437046</v>
+        <v>64.73785366666665</v>
       </c>
       <c r="N19">
-        <v>127.311138</v>
+        <v>194.213561</v>
       </c>
       <c r="O19">
-        <v>0.2030878249093402</v>
+        <v>0.3048658902295037</v>
       </c>
       <c r="P19">
-        <v>0.2119178193804366</v>
+        <v>0.3111091917238571</v>
       </c>
       <c r="Q19">
-        <v>124.13373490916</v>
+        <v>7.042507411128332</v>
       </c>
       <c r="R19">
-        <v>1117.20361418244</v>
+        <v>42.25504446676999</v>
       </c>
       <c r="S19">
-        <v>0.1059491224198838</v>
+        <v>0.005594156544714801</v>
       </c>
       <c r="T19">
-        <v>0.110555652454871</v>
+        <v>0.003829233867466947</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>2.925126666666667</v>
+        <v>0.108785</v>
       </c>
       <c r="H20">
-        <v>8.775380000000002</v>
+        <v>0.21757</v>
       </c>
       <c r="I20">
-        <v>0.5216911573462379</v>
+        <v>0.01834956524819326</v>
       </c>
       <c r="J20">
-        <v>0.5216911573462378</v>
+        <v>0.01230832765258123</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.120138</v>
+        <v>12.7841595</v>
       </c>
       <c r="N20">
-        <v>52.24027599999999</v>
+        <v>25.568319</v>
       </c>
       <c r="O20">
-        <v>0.1250012079717284</v>
+        <v>0.06020363583370166</v>
       </c>
       <c r="P20">
-        <v>0.08695739860366464</v>
+        <v>0.04095769119761797</v>
       </c>
       <c r="Q20">
-        <v>76.40471220081334</v>
+        <v>1.3907247912075</v>
       </c>
       <c r="R20">
-        <v>458.42827320488</v>
+        <v>5.562899164830001</v>
       </c>
       <c r="S20">
-        <v>0.06521202485644875</v>
+        <v>0.001104710543908974</v>
       </c>
       <c r="T20">
-        <v>0.04536490591736393</v>
+        <v>0.0005041206831535242</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.108785</v>
+      </c>
+      <c r="H21">
+        <v>0.21757</v>
+      </c>
+      <c r="I21">
+        <v>0.01834956524819326</v>
+      </c>
+      <c r="J21">
+        <v>0.01230832765258123</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>46.01464833333333</v>
+      </c>
+      <c r="N21">
+        <v>138.043945</v>
+      </c>
+      <c r="O21">
+        <v>0.216693880522677</v>
+      </c>
+      <c r="P21">
+        <v>0.2211315210441077</v>
+      </c>
+      <c r="Q21">
+        <v>5.005703518941667</v>
+      </c>
+      <c r="R21">
+        <v>30.03422111365</v>
+      </c>
+      <c r="S21">
+        <v>0.003976238499535057</v>
+      </c>
+      <c r="T21">
+        <v>0.00272175921532454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.334144999999999</v>
+      </c>
+      <c r="H22">
+        <v>10.002435</v>
+      </c>
+      <c r="I22">
+        <v>0.5623947347928234</v>
+      </c>
+      <c r="J22">
+        <v>0.5658558041257817</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>36.95112266666666</v>
+      </c>
+      <c r="N22">
+        <v>110.853368</v>
+      </c>
+      <c r="O22">
+        <v>0.1740115908809209</v>
+      </c>
+      <c r="P22">
+        <v>0.1775751473829744</v>
+      </c>
+      <c r="Q22">
+        <v>123.2004008834533</v>
+      </c>
+      <c r="R22">
+        <v>1108.80360795108</v>
+      </c>
+      <c r="S22">
+        <v>0.09786320250435281</v>
+      </c>
+      <c r="T22">
+        <v>0.1004819278151472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.334144999999999</v>
+      </c>
+      <c r="H23">
+        <v>10.002435</v>
+      </c>
+      <c r="I23">
+        <v>0.5623947347928234</v>
+      </c>
+      <c r="J23">
+        <v>0.5658558041257817</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>51.86084433333334</v>
+      </c>
+      <c r="N23">
+        <v>155.582533</v>
+      </c>
+      <c r="O23">
+        <v>0.2442250025331967</v>
+      </c>
+      <c r="P23">
+        <v>0.2492264486514428</v>
+      </c>
+      <c r="Q23">
+        <v>172.9115748297617</v>
+      </c>
+      <c r="R23">
+        <v>1556.204173467855</v>
+      </c>
+      <c r="S23">
+        <v>0.1373508555294338</v>
+      </c>
+      <c r="T23">
+        <v>0.141026232511075</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.334144999999999</v>
+      </c>
+      <c r="H24">
+        <v>10.002435</v>
+      </c>
+      <c r="I24">
+        <v>0.5623947347928234</v>
+      </c>
+      <c r="J24">
+        <v>0.5658558041257817</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>64.73785366666665</v>
+      </c>
+      <c r="N24">
+        <v>194.213561</v>
+      </c>
+      <c r="O24">
+        <v>0.3048658902295037</v>
+      </c>
+      <c r="P24">
+        <v>0.3111091917238571</v>
+      </c>
+      <c r="Q24">
+        <v>215.8453911134482</v>
+      </c>
+      <c r="R24">
+        <v>1942.608520021034</v>
+      </c>
+      <c r="S24">
+        <v>0.1714549714829997</v>
+      </c>
+      <c r="T24">
+        <v>0.1760429418538252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.925126666666667</v>
-      </c>
-      <c r="H21">
-        <v>8.775380000000002</v>
-      </c>
-      <c r="I21">
-        <v>0.5216911573462379</v>
-      </c>
-      <c r="J21">
-        <v>0.5216911573462378</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>54.86295166666665</v>
-      </c>
-      <c r="N21">
-        <v>164.588855</v>
-      </c>
-      <c r="O21">
-        <v>0.262553560445503</v>
-      </c>
-      <c r="P21">
-        <v>0.2739690477507385</v>
-      </c>
-      <c r="Q21">
-        <v>160.4810829322111</v>
-      </c>
-      <c r="R21">
-        <v>1444.3297463899</v>
-      </c>
-      <c r="S21">
-        <v>0.1369718708141899</v>
-      </c>
-      <c r="T21">
-        <v>0.1429272295981295</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.334144999999999</v>
+      </c>
+      <c r="H25">
+        <v>10.002435</v>
+      </c>
+      <c r="I25">
+        <v>0.5623947347928234</v>
+      </c>
+      <c r="J25">
+        <v>0.5658558041257817</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.7841595</v>
+      </c>
+      <c r="N25">
+        <v>25.568319</v>
+      </c>
+      <c r="O25">
+        <v>0.06020363583370166</v>
+      </c>
+      <c r="P25">
+        <v>0.04095769119761797</v>
+      </c>
+      <c r="Q25">
+        <v>42.62424147612749</v>
+      </c>
+      <c r="R25">
+        <v>255.745448856765</v>
+      </c>
+      <c r="S25">
+        <v>0.03385820780825836</v>
+      </c>
+      <c r="T25">
+        <v>0.02317614728776357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.334144999999999</v>
+      </c>
+      <c r="H26">
+        <v>10.002435</v>
+      </c>
+      <c r="I26">
+        <v>0.5623947347928234</v>
+      </c>
+      <c r="J26">
+        <v>0.5658558041257817</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>46.01464833333333</v>
+      </c>
+      <c r="N26">
+        <v>138.043945</v>
+      </c>
+      <c r="O26">
+        <v>0.216693880522677</v>
+      </c>
+      <c r="P26">
+        <v>0.2211315210441077</v>
+      </c>
+      <c r="Q26">
+        <v>153.4195096673417</v>
+      </c>
+      <c r="R26">
+        <v>1380.775587006075</v>
+      </c>
+      <c r="S26">
+        <v>0.1218674974677787</v>
+      </c>
+      <c r="T26">
+        <v>0.1251285546579708</v>
       </c>
     </row>
   </sheetData>
